--- a/config_1.12/fish_3d_yutu_random_4.xlsx
+++ b/config_1.12/fish_3d_yutu_random_4.xlsx
@@ -320,19 +320,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,176,177,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,178,</t>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1784,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="18">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="19">
         <v>2</v>
@@ -1808,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="18">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="19">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="18">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="19">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="18">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="19">
         <v>2</v>
@@ -2068,7 +2068,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
